--- a/data/trans_orig/P78A_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P78A_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>409191</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>403877</v>
+        <v>403204</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>412256</v>
+        <v>412163</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.986964388469176</v>
+        <v>0.9869643884691761</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9741487443587229</v>
+        <v>0.9725238938910504</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9943590232909481</v>
+        <v>0.9941344726613273</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1094</v>
@@ -762,19 +762,19 @@
         <v>597952</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>578842</v>
+        <v>579660</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>614096</v>
+        <v>614170</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.810892564063142</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7849763616615341</v>
+        <v>0.7860857835460537</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8327861250465302</v>
+        <v>0.8328861093639135</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1636</v>
@@ -783,19 +783,19 @@
         <v>1007143</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>986557</v>
+        <v>988718</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1025569</v>
+        <v>1025210</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.874259580985859</v>
+        <v>0.8742595809858593</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8563897055212984</v>
+        <v>0.8582655285706589</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.89025462394332</v>
+        <v>0.889942708099787</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>5404</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2339</v>
+        <v>2432</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>10718</v>
+        <v>11391</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01303561153082391</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.005640976709051953</v>
+        <v>0.005865527338672643</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02585125564127728</v>
+        <v>0.02747610610894934</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>217</v>
@@ -833,19 +833,19 @@
         <v>139448</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>123304</v>
+        <v>123230</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>158558</v>
+        <v>157740</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.1891074359368578</v>
+        <v>0.1891074359368579</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1672138749534703</v>
+        <v>0.167113890636086</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.215023638338466</v>
+        <v>0.2139142164539461</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>224</v>
@@ -854,19 +854,19 @@
         <v>144852</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>126426</v>
+        <v>126785</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>165438</v>
+        <v>163277</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.125740419014141</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1097453760566799</v>
+        <v>0.1100572919002127</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1436102944787016</v>
+        <v>0.1417344714293412</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>755760</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>715407</v>
+        <v>714553</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>789649</v>
+        <v>791578</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.7935609757036561</v>
+        <v>0.793560975703656</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7511895077653932</v>
+        <v>0.7502920142609226</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8291446626857039</v>
+        <v>0.831170360553024</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1331</v>
@@ -979,19 +979,19 @@
         <v>891201</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>856783</v>
+        <v>857305</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>926264</v>
+        <v>920619</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.723477602353479</v>
+        <v>0.7234776023534787</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6955376748219678</v>
+        <v>0.6959611861262019</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7519421462012709</v>
+        <v>0.7473591327150777</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2137</v>
@@ -1000,19 +1000,19 @@
         <v>1646961</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1594218</v>
+        <v>1592366</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1696880</v>
+        <v>1699169</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7540357840315968</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7298881625369217</v>
+        <v>0.7290404185690782</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.776890549442578</v>
+        <v>0.7779383446216719</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>196606</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>162717</v>
+        <v>160788</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>236959</v>
+        <v>237813</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2064390242963438</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1708553373142962</v>
+        <v>0.1688296394469762</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2488104922346067</v>
+        <v>0.2497079857390781</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>339</v>
@@ -1050,19 +1050,19 @@
         <v>340628</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>305565</v>
+        <v>311210</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>375046</v>
+        <v>374524</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2765223976465211</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2480578537987289</v>
+        <v>0.2526408672849224</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3044623251780321</v>
+        <v>0.3040388138737972</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>428</v>
@@ -1071,19 +1071,19 @@
         <v>537234</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>487315</v>
+        <v>485026</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>589977</v>
+        <v>591829</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.2459642159684032</v>
+        <v>0.2459642159684033</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2231094505574221</v>
+        <v>0.2220616553783282</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2701118374630786</v>
+        <v>0.2709595814309217</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>192937</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>177539</v>
+        <v>179747</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>203853</v>
+        <v>204195</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8774688470428004</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8074416835327892</v>
+        <v>0.8174793040679249</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9271145992879403</v>
+        <v>0.9286717834126611</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>316</v>
@@ -1196,19 +1196,19 @@
         <v>211015</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>197240</v>
+        <v>197760</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>222561</v>
+        <v>222852</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.8303870997193716</v>
+        <v>0.8303870997193715</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.776176520539958</v>
+        <v>0.7782230616629107</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8758207900162007</v>
+        <v>0.8769656761452039</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>545</v>
@@ -1217,19 +1217,19 @@
         <v>403952</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>382691</v>
+        <v>384516</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>421014</v>
+        <v>421515</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.8522275293161164</v>
+        <v>0.8522275293161163</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8073724461425602</v>
+        <v>0.8112229852317706</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8882229839610418</v>
+        <v>0.8892802992184873</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>26942</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>16026</v>
+        <v>15684</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>42340</v>
+        <v>40132</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1225311529571997</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.07288540071205957</v>
+        <v>0.07132821658733911</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1925583164672108</v>
+        <v>0.1825206959320749</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>39</v>
@@ -1267,19 +1267,19 @@
         <v>43102</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>31556</v>
+        <v>31265</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>56877</v>
+        <v>56357</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1696129002806284</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1241792099837993</v>
+        <v>0.123034323854796</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.223823479460042</v>
+        <v>0.2217769383370893</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>54</v>
@@ -1288,19 +1288,19 @@
         <v>70044</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>52982</v>
+        <v>52481</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>91305</v>
+        <v>89480</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1477724706838836</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1117770160389583</v>
+        <v>0.1107197007815126</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1926275538574398</v>
+        <v>0.1887770147682293</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>1357888</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1316566</v>
+        <v>1312313</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1400853</v>
+        <v>1394876</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.8557182435053972</v>
+        <v>0.8557182435053973</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8296781481261841</v>
+        <v>0.8269974343776419</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8827938912955091</v>
+        <v>0.8790276985664478</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2741</v>
@@ -1413,19 +1413,19 @@
         <v>1700168</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1657034</v>
+        <v>1658132</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1743756</v>
+        <v>1738826</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.7646890646641648</v>
+        <v>0.7646890646641645</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7452885579431138</v>
+        <v>0.7457824458696728</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7842934993401025</v>
+        <v>0.7820761222352007</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>4318</v>
@@ -1434,19 +1434,19 @@
         <v>3058056</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2998305</v>
+        <v>3003624</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>3112468</v>
+        <v>3114339</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.802600265008247</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7869181611095303</v>
+        <v>0.7883142449261095</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8168809107106157</v>
+        <v>0.8173720083785537</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>228952</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>185987</v>
+        <v>191964</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>270274</v>
+        <v>274527</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1442817564946027</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1172061087044909</v>
+        <v>0.1209723014335522</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1703218518738162</v>
+        <v>0.1730025656223581</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>595</v>
@@ -1484,19 +1484,19 @@
         <v>523178</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>479590</v>
+        <v>484520</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>566312</v>
+        <v>565214</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.2353109353358354</v>
+        <v>0.2353109353358353</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2157065006598985</v>
+        <v>0.2179238777647994</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2547114420568865</v>
+        <v>0.2542175541303273</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>706</v>
@@ -1505,19 +1505,19 @@
         <v>752130</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>697718</v>
+        <v>695847</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>811881</v>
+        <v>806562</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.197399734991753</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1831190892893838</v>
+        <v>0.1826279916214461</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2130818388904697</v>
+        <v>0.2116857550738906</v>
       </c>
     </row>
     <row r="15">
